--- a/rhla_analysis/rhla1_3_normal_result/k8.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004188623388789724</v>
+        <v>0.004188623388789717</v>
       </c>
       <c r="B2" t="n">
         <v>0.3530416057881193</v>
@@ -466,12 +466,12 @@
         <v>0.1722080136402387</v>
       </c>
       <c r="D2" t="n">
-        <v>84.28583164888654</v>
+        <v>84.28583164888668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006057023041245074</v>
+        <v>0.006057023041245076</v>
       </c>
       <c r="B3" t="n">
         <v>0.342304988918418</v>
@@ -480,12 +480,12 @@
         <v>0.1585677749360614</v>
       </c>
       <c r="D3" t="n">
-        <v>56.5137339890413</v>
+        <v>56.51373398904128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.006934591850311361</v>
+        <v>0.006934591850311288</v>
       </c>
       <c r="B4" t="n">
         <v>0.3161868758453515</v>
@@ -494,12 +494,12 @@
         <v>0.1479113384484229</v>
       </c>
       <c r="D4" t="n">
-        <v>45.59559995317603</v>
+        <v>45.59559995317651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004741977792731425</v>
+        <v>0.004741977792731416</v>
       </c>
       <c r="B5" t="n">
         <v>0.3090487211768906</v>
@@ -508,12 +508,12 @@
         <v>0.1641091219096334</v>
       </c>
       <c r="D5" t="n">
-        <v>65.17295834885712</v>
+        <v>65.17295834885725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.005741689390954249</v>
+        <v>0.005741689390954254</v>
       </c>
       <c r="B6" t="n">
         <v>0.2987733162145219</v>
@@ -522,12 +522,12 @@
         <v>0.1649616368286445</v>
       </c>
       <c r="D6" t="n">
-        <v>52.03578526648005</v>
+        <v>52.03578526648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.002354448779805161</v>
+        <v>0.002354448779805128</v>
       </c>
       <c r="B7" t="n">
         <v>0.3291942486160988</v>
@@ -536,12 +536,12 @@
         <v>0.1696504688832055</v>
       </c>
       <c r="D7" t="n">
-        <v>139.8179698958415</v>
+        <v>139.8179698958435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002635727970661958</v>
+        <v>0.002635727970662005</v>
       </c>
       <c r="B8" t="n">
         <v>0.3568045148359454</v>
@@ -550,12 +550,12 @@
         <v>0.1615515771526002</v>
       </c>
       <c r="D8" t="n">
-        <v>135.3722837893376</v>
+        <v>135.3722837893352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00726464683128593</v>
+        <v>0.007264646831285925</v>
       </c>
       <c r="B9" t="n">
         <v>0.3062200558989845</v>
@@ -564,12 +564,12 @@
         <v>0.1594202898550725</v>
       </c>
       <c r="D9" t="n">
-        <v>42.152091218009</v>
+        <v>42.15209121800903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.008044994589553137</v>
+        <v>0.00804499458955316</v>
       </c>
       <c r="B10" t="n">
         <v>0.3152020807296131</v>
@@ -578,12 +578,12 @@
         <v>0.1500426257459506</v>
       </c>
       <c r="D10" t="n">
-        <v>39.17989965324777</v>
+        <v>39.17989965324765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005816015137252785</v>
+        <v>0.005816015137252772</v>
       </c>
       <c r="B11" t="n">
         <v>0.3176560196069544</v>
@@ -592,7 +592,7 @@
         <v>0.1675191815856777</v>
       </c>
       <c r="D11" t="n">
-        <v>54.61746782127535</v>
+        <v>54.61746782127549</v>
       </c>
     </row>
   </sheetData>
